--- a/artfynd/A 18882-2019.xlsx
+++ b/artfynd/A 18882-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104789708</v>
+        <v>104793729</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -714,20 +714,16 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brutorp, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>754058.7871261307</v>
+        <v>754004.464596002</v>
       </c>
       <c r="R2" t="n">
-        <v>7197185.128098626</v>
+        <v>7197229.324461597</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -778,7 +774,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -797,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104789709</v>
+        <v>104789708</v>
       </c>
       <c r="B3" t="n">
         <v>95519</v>
@@ -841,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>754080.4528164999</v>
+        <v>754058.7871261307</v>
       </c>
       <c r="R3" t="n">
-        <v>7197162.135852392</v>
+        <v>7197185.128098626</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104793729</v>
+        <v>104789709</v>
       </c>
       <c r="B4" t="n">
         <v>95519</v>
@@ -948,16 +943,20 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brutorp, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>754004.464596002</v>
+        <v>754080.4528164999</v>
       </c>
       <c r="R4" t="n">
-        <v>7197229.324461597</v>
+        <v>7197162.135852392</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,6 +1007,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 18882-2019.xlsx
+++ b/artfynd/A 18882-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104793729</v>
+        <v>104789708</v>
       </c>
       <c r="B2" t="n">
         <v>95519</v>
@@ -714,16 +714,20 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brutorp, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>754004.464596002</v>
+        <v>754058.7871261307</v>
       </c>
       <c r="R2" t="n">
-        <v>7197229.324461597</v>
+        <v>7197185.128098626</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,6 +778,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -792,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104789708</v>
+        <v>104789709</v>
       </c>
       <c r="B3" t="n">
         <v>95519</v>
@@ -836,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>754058.7871261307</v>
+        <v>754080.4528164999</v>
       </c>
       <c r="R3" t="n">
-        <v>7197185.128098626</v>
+        <v>7197162.135852392</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104789709</v>
+        <v>104793729</v>
       </c>
       <c r="B4" t="n">
         <v>95519</v>
@@ -943,20 +948,16 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brutorp, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>754080.4528164999</v>
+        <v>754004.464596002</v>
       </c>
       <c r="R4" t="n">
-        <v>7197162.135852392</v>
+        <v>7197229.324461597</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +1008,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
